--- a/EDER_GOMEZ_4TO_BIMESTRE_SEGUNDO_SECUNDARIA.xlsx
+++ b/EDER_GOMEZ_4TO_BIMESTRE_SEGUNDO_SECUNDARIA.xlsx
@@ -1157,7 +1157,7 @@
   <dimension ref="A1:DA50"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="L50" sqref="L50"/>
+      <selection activeCell="P31" sqref="P31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2804,9 +2804,7 @@
       <c r="K7" s="12">
         <v>17</v>
       </c>
-      <c r="L7" s="12">
-        <v>16</v>
-      </c>
+      <c r="L7" s="12"/>
       <c r="M7" s="12">
         <v>17</v>
       </c>
@@ -2816,9 +2814,7 @@
       <c r="O7" s="12">
         <v>17</v>
       </c>
-      <c r="P7" s="12">
-        <v>16</v>
-      </c>
+      <c r="P7" s="12"/>
       <c r="Q7" s="12">
         <v>16</v>
       </c>
@@ -8138,9 +8134,7 @@
       <c r="K28" s="12">
         <v>12</v>
       </c>
-      <c r="L28" s="12">
-        <v>12</v>
-      </c>
+      <c r="L28" s="12"/>
       <c r="M28" s="12">
         <v>15</v>
       </c>
@@ -8150,9 +8144,7 @@
       <c r="O28" s="12">
         <v>12</v>
       </c>
-      <c r="P28" s="12">
-        <v>12</v>
-      </c>
+      <c r="P28" s="12"/>
       <c r="Q28" s="12">
         <v>12</v>
       </c>
@@ -8924,9 +8916,7 @@
       <c r="K31" s="12">
         <v>12</v>
       </c>
-      <c r="L31" s="12">
-        <v>12</v>
-      </c>
+      <c r="L31" s="12"/>
       <c r="M31" s="12">
         <v>14</v>
       </c>
@@ -8936,9 +8926,7 @@
       <c r="O31" s="12">
         <v>12</v>
       </c>
-      <c r="P31" s="12">
-        <v>12</v>
-      </c>
+      <c r="P31" s="12"/>
       <c r="Q31" s="12">
         <v>16</v>
       </c>
